--- a/data/trans_dic/P1413-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1413-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1742900255222752</v>
+        <v>0.1745942541781436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07711879341278452</v>
+        <v>0.07737113848065162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08281905333779375</v>
+        <v>0.08136287091233042</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2511854032326734</v>
+        <v>0.2475063337061929</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1970353939989566</v>
+        <v>0.1985418243768559</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1807209928206088</v>
+        <v>0.1801049290345347</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1428740132196784</v>
+        <v>0.1423790463073399</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3790835195588809</v>
+        <v>0.3768733536722643</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.19569643224271</v>
+        <v>0.1957771340135655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1343777837282188</v>
+        <v>0.1363944245099779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1212673486178149</v>
+        <v>0.1192126704247869</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3297598469439553</v>
+        <v>0.3331359291378755</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2386010754231767</v>
+        <v>0.2370089062885327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1128469467536586</v>
+        <v>0.113098931738284</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1183519134181405</v>
+        <v>0.1200044960693016</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3340642945599805</v>
+        <v>0.333791083328032</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2538516974162904</v>
+        <v>0.251179459384242</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2293397538299226</v>
+        <v>0.2293087720150442</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1869943694173662</v>
+        <v>0.1867649449793682</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4466080055776896</v>
+        <v>0.4485839870325134</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.238435315881579</v>
+        <v>0.2395232476393881</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.16747226271318</v>
+        <v>0.1696368987645077</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1500864524138031</v>
+        <v>0.1478134327341439</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.385390765334192</v>
+        <v>0.3886981979849227</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1478237065030213</v>
+        <v>0.1480918871058765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07922665816555781</v>
+        <v>0.07875832098283142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06989008348080215</v>
+        <v>0.06943977497365586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.170507423233648</v>
+        <v>0.1695057411926199</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1811204093044063</v>
+        <v>0.1810046862838647</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1692645301082026</v>
+        <v>0.1691803336501426</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1228197759281191</v>
+        <v>0.1241123777003433</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2854070830884546</v>
+        <v>0.2838418765430266</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1718439350256673</v>
+        <v>0.1717285667934568</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1321595134221695</v>
+        <v>0.1309233626785516</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1026953941515431</v>
+        <v>0.1031605670752812</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2396461013452255</v>
+        <v>0.2388842839261638</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1927850556275659</v>
+        <v>0.1936336901112037</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1197091898941454</v>
+        <v>0.1190571627509746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1078767435938845</v>
+        <v>0.106355387473149</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2211224662555044</v>
+        <v>0.2183009840187998</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2285210352305868</v>
+        <v>0.2298206134255895</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2173659808432323</v>
+        <v>0.2169868716800381</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1688383270063047</v>
+        <v>0.1703787177725649</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3306634938624463</v>
+        <v>0.3309245494570811</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2065682421783212</v>
+        <v>0.2045217110024246</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1620792305371886</v>
+        <v>0.1637035595261909</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1346202244008977</v>
+        <v>0.1335995943076126</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2740185256162688</v>
+        <v>0.2728998464551916</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1097021724163002</v>
+        <v>0.1104344810448274</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06778656167617368</v>
+        <v>0.06603950550468833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0444525070284594</v>
+        <v>0.0429356551617869</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1202140461663878</v>
+        <v>0.1233757245069363</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1321829525419043</v>
+        <v>0.1317332326059518</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1226123499378741</v>
+        <v>0.1240825769586827</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08242623571321941</v>
+        <v>0.08538033150246845</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2426988558240961</v>
+        <v>0.2437854088078094</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1258533169188227</v>
+        <v>0.1248720048570726</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1003934414656538</v>
+        <v>0.1008533202078208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0681730867834974</v>
+        <v>0.06999583734753181</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.188893892323098</v>
+        <v>0.1889190628700337</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1502112215315802</v>
+        <v>0.1504718805078114</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1064335797697454</v>
+        <v>0.1043938931262658</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07800708687826244</v>
+        <v>0.0787246506978668</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1660311852609644</v>
+        <v>0.1689546076562098</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1768103453621402</v>
+        <v>0.1762126715145674</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1723391158507472</v>
+        <v>0.1726820937098072</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1318248002401155</v>
+        <v>0.1320688712245123</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2929575605620299</v>
+        <v>0.2901924711454662</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1548776681724838</v>
+        <v>0.1560383931120634</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1319057293856727</v>
+        <v>0.1322061650973387</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0976333272152428</v>
+        <v>0.09893243603923631</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.221714577008325</v>
+        <v>0.2210655205507261</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1125198729257292</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.276557917843086</v>
+        <v>0.2765579178430861</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1637947717283023</v>
@@ -1105,7 +1105,7 @@
         <v>0.09073890634736961</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2250475223059809</v>
+        <v>0.2250475223059808</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1248471601904394</v>
+        <v>0.1267133894877623</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05908883460099049</v>
+        <v>0.05887025887858504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04848946305309334</v>
+        <v>0.04822432945689745</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1538554267054888</v>
+        <v>0.1512362218932633</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1378437140591156</v>
+        <v>0.1346669678734985</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1219804066223242</v>
+        <v>0.1204741966443792</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08528495924715206</v>
+        <v>0.0866535554589879</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2503735924750968</v>
+        <v>0.2511678975853036</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.137279509250208</v>
+        <v>0.1391038851094952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0957022136175386</v>
+        <v>0.09543143806776877</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0733266483175837</v>
+        <v>0.07270609921654872</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2071126339330564</v>
+        <v>0.2083549192985622</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1959795376357075</v>
+        <v>0.1957973827453294</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1102889013606272</v>
+        <v>0.1124776087703603</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09810038708985828</v>
+        <v>0.09486795038252899</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2041987431565469</v>
+        <v>0.2046233133828487</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2146663411150397</v>
+        <v>0.2176949808443644</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1908927349865784</v>
+        <v>0.1931036904045401</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1454254423833546</v>
+        <v>0.1482615226119722</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3037019228439544</v>
+        <v>0.3063184479286388</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1886220746806308</v>
+        <v>0.1922214566719873</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.138318046073367</v>
+        <v>0.1383508643955249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1109171877300096</v>
+        <v>0.1091764467615244</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2444035885498675</v>
+        <v>0.2437488570633007</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.08176243544838492</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1880207295415499</v>
+        <v>0.18802072954155</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1916488250898962</v>
@@ -1241,7 +1241,7 @@
         <v>0.1108672014604669</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2487865492680063</v>
+        <v>0.2487865492680062</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1477681531372045</v>
+        <v>0.1481284586649372</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08127858567720869</v>
+        <v>0.08092194588657295</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07266427877015465</v>
+        <v>0.07213600907102487</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1745714335712157</v>
+        <v>0.1751967616738926</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1779522051101248</v>
+        <v>0.1787443051438979</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1664134210220295</v>
+        <v>0.1668914032386616</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1265291597098106</v>
+        <v>0.1270935370174448</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2928006676984907</v>
+        <v>0.2938139841551449</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1674048188634571</v>
+        <v>0.1659546881541701</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.127612468150549</v>
+        <v>0.1285788732105169</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.10382972895335</v>
+        <v>0.1037600799502233</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2390255039960997</v>
+        <v>0.2400802390840155</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1743037695649722</v>
+        <v>0.1724010678619621</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1014248986113496</v>
+        <v>0.1008143976491048</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09157474154527434</v>
+        <v>0.09113898016888311</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2023189307352457</v>
+        <v>0.2018124205332208</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2045150374718759</v>
+        <v>0.2066931971836049</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1933937728621451</v>
+        <v>0.1935253728046305</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1512343884960564</v>
+        <v>0.1506956470950946</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3198705000286897</v>
+        <v>0.3196645794726438</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1858720327838026</v>
+        <v>0.1857011504726484</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1448993643792238</v>
+        <v>0.145330610200213</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1202289970600626</v>
+        <v>0.1197271144859681</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2574982280030781</v>
+        <v>0.2581890836784052</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>101810</v>
+        <v>101988</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>80507</v>
+        <v>80770</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>93420</v>
+        <v>91777</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>125058</v>
+        <v>123226</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>181732</v>
+        <v>183122</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>202164</v>
+        <v>201475</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>179959</v>
+        <v>179335</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>236389</v>
+        <v>235011</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>294812</v>
+        <v>294933</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>290604</v>
+        <v>294965</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>289533</v>
+        <v>284627</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>369810</v>
+        <v>373596</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>139377</v>
+        <v>138447</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>117805</v>
+        <v>118068</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>133501</v>
+        <v>135365</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>166321</v>
+        <v>166185</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>234136</v>
+        <v>231671</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>256552</v>
+        <v>256517</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>235531</v>
+        <v>235242</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>278496</v>
+        <v>279728</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>359197</v>
+        <v>360836</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>362174</v>
+        <v>366855</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>358340</v>
+        <v>352913</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>432197</v>
+        <v>435906</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>159338</v>
+        <v>159627</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>77410</v>
+        <v>76953</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>63518</v>
+        <v>63109</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>163710</v>
+        <v>162749</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>191542</v>
+        <v>191419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>184892</v>
+        <v>184800</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>123615</v>
+        <v>124916</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>318277</v>
+        <v>316531</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>366961</v>
+        <v>366715</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>273491</v>
+        <v>270933</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>196692</v>
+        <v>197583</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>497338</v>
+        <v>495757</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>207802</v>
+        <v>208717</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>116965</v>
+        <v>116328</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>98041</v>
+        <v>96658</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>212308</v>
+        <v>209599</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>241670</v>
+        <v>243044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>237435</v>
+        <v>237021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>169932</v>
+        <v>171482</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>368745</v>
+        <v>369036</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>441112</v>
+        <v>436742</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>335407</v>
+        <v>338768</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>257838</v>
+        <v>255883</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>568671</v>
+        <v>566350</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>123041</v>
+        <v>123863</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>59999</v>
+        <v>58453</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>36618</v>
+        <v>35369</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>125694</v>
+        <v>129000</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>131382</v>
+        <v>130935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>107383</v>
+        <v>108671</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>63555</v>
+        <v>65833</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>254104</v>
+        <v>255241</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>266247</v>
+        <v>264171</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>176784</v>
+        <v>177594</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>108724</v>
+        <v>111631</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>395275</v>
+        <v>395328</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>168476</v>
+        <v>168768</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>94206</v>
+        <v>92401</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64259</v>
+        <v>64850</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>173600</v>
+        <v>176657</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>175739</v>
+        <v>175145</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>150934</v>
+        <v>151234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>101645</v>
+        <v>101833</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>306724</v>
+        <v>303829</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>327649</v>
+        <v>330105</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>232274</v>
+        <v>232803</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>155707</v>
+        <v>157779</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>463955</v>
+        <v>462597</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55832</v>
+        <v>56666</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29723</v>
+        <v>29613</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24570</v>
+        <v>24435</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>149595</v>
+        <v>147049</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>47026</v>
+        <v>45943</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>55225</v>
+        <v>54543</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>41764</v>
+        <v>42434</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>227229</v>
+        <v>227950</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>108225</v>
+        <v>109664</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>91468</v>
+        <v>91209</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>73063</v>
+        <v>72444</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>389345</v>
+        <v>391681</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87642</v>
+        <v>87561</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>55478</v>
+        <v>56579</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>49708</v>
+        <v>48070</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>198545</v>
+        <v>198958</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>73235</v>
+        <v>74268</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>86424</v>
+        <v>87425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>71215</v>
+        <v>72603</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>275628</v>
+        <v>278002</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>148702</v>
+        <v>151539</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>132199</v>
+        <v>132230</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>110518</v>
+        <v>108783</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>459447</v>
+        <v>458217</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>477414</v>
+        <v>478578</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>277090</v>
+        <v>275875</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>244681</v>
+        <v>242902</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>606794</v>
+        <v>608968</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>589906</v>
+        <v>592532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>589022</v>
+        <v>590714</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>446242</v>
+        <v>448232</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1081400</v>
+        <v>1085142</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1095798</v>
+        <v>1086306</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>886735</v>
+        <v>893450</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>715810</v>
+        <v>715330</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1713623</v>
+        <v>1721184</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>563146</v>
+        <v>556998</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>345772</v>
+        <v>343691</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>308358</v>
+        <v>306891</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>703242</v>
+        <v>701481</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>677961</v>
+        <v>685182</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>684519</v>
+        <v>684985</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>533372</v>
+        <v>531472</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1181377</v>
+        <v>1180616</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1216681</v>
+        <v>1215562</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1006856</v>
+        <v>1009853</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>828868</v>
+        <v>825408</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1846058</v>
+        <v>1851010</v>
       </c>
     </row>
     <row r="24">
